--- a/hospital.xlsx
+++ b/hospital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorge/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B90E7A-4D09-471A-8809-8C829E4F72FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFF3866-326D-EF4C-A2EC-CF4122D23F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C3897B9C-7919-4F02-B0A9-99F5C445C16C}"/>
+    <workbookView xWindow="140" yWindow="920" windowWidth="29920" windowHeight="17420" xr2:uid="{C3897B9C-7919-4F02-B0A9-99F5C445C16C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -70,13 +70,16 @@
   </si>
   <si>
     <t>Asma</t>
+  </si>
+  <si>
+    <t>Nivel de contaminación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +91,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,12 +128,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +190,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -288,7 +296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,7 +438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,413 +446,714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF46656-7D2B-487C-B4F1-F30751CE2C76}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="1"/>
+    <col min="6" max="6" width="19.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
         <v>70</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>165</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="G2" s="3">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>45</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
         <v>60</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>160</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="G3" s="3">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
         <v>75</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>170</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="G4" s="3">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>155</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="G5" s="3">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
         <v>80</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>175</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
         <v>42</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
         <v>68</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>162</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="G7" s="3">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>39</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
         <v>72</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>168</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="G8" s="3">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>160</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="G9" s="3">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
         <v>78</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>180</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="G10" s="3">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>48</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
         <v>65</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <v>163</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="G11" s="3">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>41</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
         <v>74</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>172</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="G12" s="3">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>67</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>168</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="G13" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
         <v>55</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="G14" s="3">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>52</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
         <v>85</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>178</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="G15" s="3">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3">
         <v>63</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>161</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="G16" s="3">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>46</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>176</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="G17" s="3">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>29</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3">
         <v>58</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <v>159</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="G18" s="3">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
         <v>77</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <v>173</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="G19" s="3">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3">
         <v>69</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>164</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="G20" s="3">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>43</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
         <v>76</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>171</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3">
+        <v>64</v>
+      </c>
+      <c r="E22" s="3">
+        <v>160</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3">
+        <v>177</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3">
+        <v>70</v>
+      </c>
+      <c r="E24" s="3">
+        <v>162</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>79</v>
+      </c>
+      <c r="E25" s="3">
+        <v>174</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3">
+        <v>66</v>
+      </c>
+      <c r="E26" s="3">
+        <v>165</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3">
+        <v>73</v>
+      </c>
+      <c r="E27" s="3">
+        <v>170</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3">
+        <v>62</v>
+      </c>
+      <c r="E28" s="3">
+        <v>158</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>81</v>
+      </c>
+      <c r="E29" s="3">
+        <v>179</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="3">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3">
+        <v>57</v>
+      </c>
+      <c r="E30" s="3">
+        <v>161</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3">
+        <v>83</v>
+      </c>
+      <c r="E31" s="3">
+        <v>175</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3">
+        <v>65.099999999999994</v>
       </c>
     </row>
   </sheetData>
